--- a/kostraleveranse2020/Kostra 23 - Fylkesveg med forsterket midtoppmerking.xlsx
+++ b/kostraleveranse2020/Kostra 23 - Fylkesveg med forsterket midtoppmerking.xlsx
@@ -503,7 +503,7 @@
         <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>31901.84099999999</v>
+        <v>31901.80299999999</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-02-03</t>
+          <t>2021-02-04</t>
         </is>
       </c>
     </row>
